--- a/FOAD_Merise/ExercicesModeleConceptuel/GestionEditeur/Editeur.xlsx
+++ b/FOAD_Merise/ExercicesModeleConceptuel/GestionEditeur/Editeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Merise\ExercicesModeleConceptuel\GestionEditeur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C42521B-3F27-4DFA-B4CA-51C0A30EAFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9965BFEF-BBA0-40B5-ABFB-868EAC0178EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F5E3A59-BF1C-49BC-A652-2DB3E1FDE75B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>Book_isbnNumber</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Order_number</t>
+  </si>
+  <si>
+    <t>Order_date</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,13 +157,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +185,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20 % - Accent1" xfId="2" builtinId="30"/>
@@ -485,19 +504,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0A2425-4E59-4B54-9681-C3F8C4278088}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="20.7109375" customWidth="1"/>
+    <col min="2" max="16" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -541,8 +560,11 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +584,9 @@
       <c r="O2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,8 +608,9 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -608,8 +632,9 @@
       <c r="O4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,8 +656,9 @@
       <c r="O5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,8 +678,9 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -675,8 +702,9 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -698,8 +726,9 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -721,8 +750,9 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -744,8 +774,9 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -769,8 +800,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -790,8 +822,9 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -811,10 +844,11 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -832,78 +866,89 @@
       <c r="O14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -916,7 +961,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -929,7 +974,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -942,12 +987,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -955,7 +1000,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
@@ -968,12 +1013,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -981,70 +1026,70 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1059,7 +1104,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>